--- a/notebooks/assets/test/keras2G0_01.xlsx
+++ b/notebooks/assets/test/keras2G0_01.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.044</v>
+        <v>1.242</v>
       </c>
       <c r="C2" t="n">
-        <v>0.895</v>
+        <v>1.801</v>
       </c>
       <c r="D2" t="n">
-        <v>0.885</v>
+        <v>1.142</v>
       </c>
       <c r="E2" t="n">
-        <v>1.537</v>
+        <v>2.492</v>
       </c>
       <c r="F2" t="n">
-        <v>0.897</v>
+        <v>1.285</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.881</v>
+        <v>2.928</v>
       </c>
       <c r="C3" t="n">
-        <v>1.381</v>
+        <v>6.29</v>
       </c>
       <c r="D3" t="n">
-        <v>1.328</v>
+        <v>2.175</v>
       </c>
       <c r="E3" t="n">
-        <v>4.384</v>
+        <v>14.225</v>
       </c>
       <c r="F3" t="n">
-        <v>1.466</v>
+        <v>3.344</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.247</v>
+        <v>18.214</v>
       </c>
       <c r="C4" t="n">
-        <v>15.306</v>
+        <v>15.308</v>
       </c>
       <c r="D4" t="n">
-        <v>12.947</v>
+        <v>12.948</v>
       </c>
       <c r="E4" t="n">
-        <v>30.637</v>
+        <v>30.588</v>
       </c>
       <c r="F4" t="n">
-        <v>18.068</v>
+        <v>18.064</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.823</v>
+        <v>18.057</v>
       </c>
       <c r="C5" t="n">
-        <v>15.109</v>
+        <v>15.074</v>
       </c>
       <c r="D5" t="n">
-        <v>12.533</v>
+        <v>12.675</v>
       </c>
       <c r="E5" t="n">
-        <v>31.793</v>
+        <v>32.428</v>
       </c>
       <c r="F5" t="n">
-        <v>18.122</v>
+        <v>18.19</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.751</v>
       </c>
       <c r="C6" t="n">
-        <v>0.912</v>
+        <v>0.629</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.598</v>
       </c>
       <c r="E6" t="n">
-        <v>0.891</v>
+        <v>0.672</v>
       </c>
       <c r="F6" t="n">
-        <v>0.928</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
